--- a/003 Excel from IronPython/ansys.xlsx
+++ b/003 Excel from IronPython/ansys.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnsysScripting\003 Excel from IronPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0942762-20FC-4DAF-823D-B1CD2D69A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068630A9-BEAE-4432-B482-D73570D2B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25452" yWindow="3324" windowWidth="17280" windowHeight="8964" xr2:uid="{13942E29-287E-4572-8CCF-8EAF85D5C626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +34,15 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -37,7 +51,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,7 +85,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -81,6 +95,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE33DD84-28E5-4DD5-B4B6-21313CD36A55}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{FE33DD84-28E5-4DD5-B4B6-21313CD36A55}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8945F11E-8A60-4DFA-888E-29100A75DE97}" name="id"/>
+    <tableColumn id="2" xr3:uid="{3FC3183C-A193-471E-A397-465D5EAF1C0E}" name="name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,44 +119,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -159,14 +184,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -194,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -205,232 +264,199 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE1B5DC-8141-4E17-91CC-77153F0B74CB}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/003 Excel from IronPython/ansys.xlsx
+++ b/003 Excel from IronPython/ansys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnsysScripting\003 Excel from IronPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068630A9-BEAE-4432-B482-D73570D2B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA24F1F-78CA-4D74-BF71-5BE1D5279B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25452" yWindow="3324" windowWidth="17280" windowHeight="8964" xr2:uid="{13942E29-287E-4572-8CCF-8EAF85D5C626}"/>
+    <workbookView xWindow="24672" yWindow="2328" windowWidth="17280" windowHeight="8964" xr2:uid="{13942E29-287E-4572-8CCF-8EAF85D5C626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -43,16 +43,56 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>eee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,12 +114,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,17 +190,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE33DD84-28E5-4DD5-B4B6-21313CD36A55}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{FE33DD84-28E5-4DD5-B4B6-21313CD36A55}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8945F11E-8A60-4DFA-888E-29100A75DE97}" name="id"/>
-    <tableColumn id="2" xr3:uid="{3FC3183C-A193-471E-A397-465D5EAF1C0E}" name="name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,59 +488,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE1B5DC-8141-4E17-91CC-77153F0B74CB}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row spans="1:9" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row spans="1:9" x14ac:dyDescent="0.3" outlineLevel="0" r="2">
+      <c r="A2" s="3">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row spans="1:9" x14ac:dyDescent="0.3" outlineLevel="0" r="3">
+      <c r="A3" s="3">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row spans="1:9" x14ac:dyDescent="0.3" outlineLevel="0" r="4">
+      <c r="A4" s="3">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row spans="1:9" x14ac:dyDescent="0.3" outlineLevel="0" r="5">
+      <c r="A5" s="3">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.3" outlineLevel="0" r="6">
+      <c r="A6" s="5">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>55</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>